--- a/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-НН толщина 1.9 мм/results.xlsx
+++ b/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-НН толщина 1.9 мм/results.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D318"/>
+  <dimension ref="A1:D325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4717,6 +4717,83 @@
       </c>
       <c r="D318">
         <v>30.4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="1">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>30.4</v>
+      </c>
+      <c r="D319">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>31.6</v>
+      </c>
+      <c r="D320">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>30.5</v>
+      </c>
+      <c r="D321">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>30.5</v>
+      </c>
+      <c r="D322">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>30.6</v>
+      </c>
+      <c r="D323">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>29.9</v>
+      </c>
+      <c r="D324">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>28.9</v>
+      </c>
+      <c r="D325">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4742,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4758,7 +4835,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -4784,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.59558359621449</v>
+        <v>28.63333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4800,7 +4877,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>27.16214511041008</v>
+        <v>27.24043209876541</v>
       </c>
     </row>
   </sheetData>
@@ -4922,7 +4999,7 @@
         <v>0.9377165651705427</v>
       </c>
       <c r="D2">
-        <v>0.7901041474961842</v>
+        <v>0.7912126709403634</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4944,7 +5021,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7901041474961842</v>
+        <v>0.7912126709403634</v>
       </c>
       <c r="C4">
         <v>0.8293107471326884</v>
@@ -4976,7 +5053,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.472146773750246</v>
+        <v>3.445515773780241</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4992,7 +5069,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.679008381545448</v>
+        <v>4.658578537738647</v>
       </c>
     </row>
   </sheetData>

--- a/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-НН толщина 1.9 мм/results.xlsx
+++ b/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-НН толщина 1.9 мм/results.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D325"/>
+  <dimension ref="A1:D329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4794,6 +4794,50 @@
       </c>
       <c r="D325">
         <v>30</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>29.8</v>
+      </c>
+      <c r="D326">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>30.6</v>
+      </c>
+      <c r="D327">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>29.4</v>
+      </c>
+      <c r="D328">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>30.2</v>
+      </c>
+      <c r="D329">
+        <v>30.7</v>
       </c>
     </row>
   </sheetData>
@@ -4819,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4835,7 +4879,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -4861,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.63333333333331</v>
+        <v>28.65</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4877,7 +4921,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>27.24043209876541</v>
+        <v>27.27957317073171</v>
       </c>
     </row>
   </sheetData>
@@ -4996,10 +5040,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9377165651705427</v>
+        <v>0.9377165651705432</v>
       </c>
       <c r="D2">
-        <v>0.7912126709403634</v>
+        <v>0.7915147255177825</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5007,13 +5051,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9377165651705427</v>
+        <v>0.9377165651705432</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.8293107471326884</v>
+        <v>0.8293107471326876</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5021,10 +5065,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7912126709403634</v>
+        <v>0.7915147255177825</v>
       </c>
       <c r="C4">
-        <v>0.8293107471326884</v>
+        <v>0.8293107471326876</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5053,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.445515773780241</v>
+        <v>3.428028025963176</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5061,7 +5105,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.834455465287738</v>
+        <v>3.834455465287737</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5069,7 +5113,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.658578537738647</v>
+        <v>4.643647839865197</v>
       </c>
     </row>
   </sheetData>
@@ -5079,7 +5123,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5101,14 +5145,6 @@
         <v>28.9</v>
       </c>
       <c r="C2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3">
         <v>29.8</v>
       </c>
     </row>

--- a/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-НН толщина 1.9 мм/results.xlsx
+++ b/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ЛИТКОР-НН толщина 1.9 мм/results.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D329"/>
+  <dimension ref="A1:D341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4838,6 +4838,138 @@
       </c>
       <c r="D329">
         <v>30.7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>28.4</v>
+      </c>
+      <c r="D330">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>28.9</v>
+      </c>
+      <c r="D331">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>28.8</v>
+      </c>
+      <c r="D332">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>28.6</v>
+      </c>
+      <c r="D333">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>28</v>
+      </c>
+      <c r="D334">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>27.9</v>
+      </c>
+      <c r="D335">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>28.2</v>
+      </c>
+      <c r="D336">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>28.3</v>
+      </c>
+      <c r="D337">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>27.9</v>
+      </c>
+      <c r="D338">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>28.1</v>
+      </c>
+      <c r="D339">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>27.6</v>
+      </c>
+      <c r="D340">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>27.7</v>
+      </c>
+      <c r="D341">
+        <v>27.9</v>
       </c>
     </row>
   </sheetData>
@@ -4863,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4879,7 +5011,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -4905,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.65</v>
+        <v>28.63411764705883</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4921,7 +5053,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>27.27957317073171</v>
+        <v>27.31588235294118</v>
       </c>
     </row>
   </sheetData>
@@ -5043,7 +5175,7 @@
         <v>0.9377165651705432</v>
       </c>
       <c r="D2">
-        <v>0.7915147255177825</v>
+        <v>0.7894575779191035</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5065,7 +5197,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7915147255177825</v>
+        <v>0.7894575779191035</v>
       </c>
       <c r="C4">
         <v>0.8293107471326876</v>
@@ -5097,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.428028025963176</v>
+        <v>3.368667110032206</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5113,7 +5245,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.643647839865197</v>
+        <v>4.565167023956496</v>
       </c>
     </row>
   </sheetData>
